--- a/static/files/funktioner/arbejdsdage.xlsx
+++ b/static/files/funktioner/arbejdsdage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ac1f8984512bd16/Dokumenter/GitHub/www/content/blog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ac1f8984512bd16/Dokumenter/GitHub/www/static/files/funktioner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{61772FE6-F9BC-4C2B-8CC0-82F7909784AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A020F873-7363-4608-AEEB-77B7DB892086}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{61772FE6-F9BC-4C2B-8CC0-82F7909784AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97DE7720-A547-4D6A-839C-5D8E632822BC}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4905" windowWidth="29040" windowHeight="15720" xr2:uid="{DC59E2A0-E514-4292-9FE0-C5447464FE19}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Dato</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>=ANTAL.ARBEJDSDAGE.INTL(startdato;slutdato;weekend;feriedage)</t>
+  </si>
+  <si>
+    <t>0000110</t>
+  </si>
+  <si>
+    <t>fredag &amp; lørdag er weekend</t>
+  </si>
+  <si>
+    <t>fredag og lørdag er weekend</t>
   </si>
 </sst>
 </file>
@@ -254,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -315,6 +324,12 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,11 +789,11 @@
         <v>45033</v>
       </c>
       <c r="D15" s="12" t="str">
-        <f>TEXT(C15,"dddd")</f>
+        <f>IF(C15="","",TEXT(C15,"dddd"))</f>
         <v>mandag</v>
       </c>
       <c r="F15" s="15" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C15)</f>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C15),"")</f>
         <v>=ARBEJDSDAG(C3;C4;C7:C12)</v>
       </c>
     </row>
@@ -791,9 +806,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D480E279-C99B-4A53-A6D8-F698635C9051}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3046875" defaultRowHeight="20.6" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -871,7 +886,7 @@
         <v>45001</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>TEXT(C10,"dddd")</f>
+        <f>IF(C10="","",TEXT(C10,"dddd"))</f>
         <v>torsdag</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -880,7 +895,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" s="15" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C10)</f>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C10),"")</f>
         <v>=ARBEJDSDAG.INTL(C3;C4;7;C7)</v>
       </c>
     </row>
@@ -895,17 +910,29 @@
         <v>45001</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f>TEXT(C14,"dddd")</f>
+        <f>IF(C14="","",TEXT(C14,"dddd"))</f>
         <v>torsdag</v>
       </c>
       <c r="F14" s="15" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C14)</f>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C14),"")</f>
         <v>=ARBEJDSDAG.INTL(C3;C4;"0000110";C7)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D16" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1056,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7556E643-A89E-4B58-B040-CF11E140FEFE}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1071,7 +1098,7 @@
     <col min="7" max="16384" width="11.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -1080,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1119,7 @@
         <v>onsdag</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1131,7 @@
         <v>onsdag</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1112,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="18">
         <v>44993</v>
       </c>
@@ -1121,11 +1148,11 @@
         <v>onsdag</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
@@ -1133,36 +1160,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="24">
         <f>NETWORKDAYS.INTL(C3,C4,7,C7)</f>
         <v>10</v>
       </c>
       <c r="D10" s="15" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C10)</f>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C10),"")</f>
         <v>=ANTAL.ARBEJDSDAGE.INTL(C3;C4;7;C7)</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="24">
         <f>NETWORKDAYS.INTL(C3,C4,"0000110",C7)</f>
         <v>10</v>
       </c>
       <c r="D14" s="15" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C14)</f>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C14),"")</f>
         <v>=ANTAL.ARBEJDSDAGE.INTL(C3;C4;"0000110";C7)</v>
       </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C16" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/static/files/funktioner/arbejdsdage.xlsx
+++ b/static/files/funktioner/arbejdsdage.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ac1f8984512bd16/Dokumenter/GitHub/www/static/files/funktioner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{61772FE6-F9BC-4C2B-8CC0-82F7909784AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97DE7720-A547-4D6A-839C-5D8E632822BC}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{61772FE6-F9BC-4C2B-8CC0-82F7909784AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C97D38ED-C9BA-4851-B784-6906ADB40235}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4905" windowWidth="29040" windowHeight="15720" xr2:uid="{DC59E2A0-E514-4292-9FE0-C5447464FE19}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" activeTab="5" xr2:uid="{DC59E2A0-E514-4292-9FE0-C5447464FE19}"/>
   </bookViews>
   <sheets>
     <sheet name="ARBEJDSDAG" sheetId="2" r:id="rId1"/>
-    <sheet name="ARBEJDSDAG.INTL" sheetId="3" r:id="rId2"/>
-    <sheet name="ANTAL.ARBEJDSDAGE" sheetId="1" r:id="rId3"/>
-    <sheet name="ANTAL.ARBEJDSDAGE.INTL" sheetId="4" r:id="rId4"/>
+    <sheet name="Ark1" sheetId="5" r:id="rId2"/>
+    <sheet name="ARBEJDSDAG.INTL" sheetId="3" r:id="rId3"/>
+    <sheet name="ANTAL.ARBEJDSDAGE" sheetId="1" r:id="rId4"/>
+    <sheet name="ANTAL.ARBEJDSDAGE.INTL" sheetId="4" r:id="rId5"/>
+    <sheet name="Ark2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -667,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AC52FA-5F94-4E87-A368-8041311D297F}">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3046875" defaultRowHeight="20.6" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -805,6 +807,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC19D6BD-BE14-4C64-A516-6F2D71B8C6B7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D480E279-C99B-4A53-A6D8-F698635C9051}">
   <dimension ref="B2:F16"/>
   <sheetViews>
@@ -936,7 +950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047D835F-0A72-4FB6-B695-18532B97D8FD}">
   <dimension ref="B2:F20"/>
   <sheetViews>
@@ -1081,7 +1095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7556E643-A89E-4B58-B040-CF11E140FEFE}">
   <dimension ref="B2:F16"/>
   <sheetViews>
@@ -1205,4 +1219,16 @@
     <ignoredError sqref="C16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1045B9CD-EA5C-41F8-8B82-C50C8ACE4C68}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/static/files/funktioner/arbejdsdage.xlsx
+++ b/static/files/funktioner/arbejdsdage.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ac1f8984512bd16/Dokumenter/GitHub/www/static/files/funktioner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{61772FE6-F9BC-4C2B-8CC0-82F7909784AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C97D38ED-C9BA-4851-B784-6906ADB40235}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{61772FE6-F9BC-4C2B-8CC0-82F7909784AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24DF076B-D73B-4EA1-9DD8-3F038E9E1AD4}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" activeTab="5" xr2:uid="{DC59E2A0-E514-4292-9FE0-C5447464FE19}"/>
+    <workbookView xWindow="-28920" yWindow="4905" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DC59E2A0-E514-4292-9FE0-C5447464FE19}"/>
   </bookViews>
   <sheets>
     <sheet name="ARBEJDSDAG" sheetId="2" r:id="rId1"/>
-    <sheet name="Ark1" sheetId="5" r:id="rId2"/>
-    <sheet name="ARBEJDSDAG.INTL" sheetId="3" r:id="rId3"/>
-    <sheet name="ANTAL.ARBEJDSDAGE" sheetId="1" r:id="rId4"/>
-    <sheet name="ANTAL.ARBEJDSDAGE.INTL" sheetId="4" r:id="rId5"/>
-    <sheet name="Ark2" sheetId="6" r:id="rId6"/>
+    <sheet name="ARBEJDSDAG.INTL" sheetId="3" r:id="rId2"/>
+    <sheet name="ANTAL.ARBEJDSDAGE" sheetId="1" r:id="rId3"/>
+    <sheet name="ANTAL.ARBEJDSDAGE.INTL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>Dato</t>
   </si>
@@ -86,6 +84,18 @@
   </si>
   <si>
     <t>fredag og lørdag er weekend</t>
+  </si>
+  <si>
+    <t>ANTAL.ARBEJDSDAGE.INTL</t>
+  </si>
+  <si>
+    <t>ANTAL.ARBEJDSDAGE</t>
+  </si>
+  <si>
+    <t>ARBEJDSDAG.INTL</t>
+  </si>
+  <si>
+    <t>ARBEJDSDAG</t>
   </si>
 </sst>
 </file>
@@ -265,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -332,6 +342,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AC52FA-5F94-4E87-A368-8041311D297F}">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -682,124 +701,134 @@
     <col min="7" max="16384" width="11.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C4" s="16">
         <v>45012</v>
       </c>
-      <c r="D3" s="7" t="str">
-        <f>TEXT(C3,"dddd")</f>
+      <c r="D4" s="7" t="str">
+        <f>TEXT(C4,"dddd")</f>
         <v>mandag</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C5" s="21">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="13" t="s">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="18">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="18">
         <v>45019</v>
       </c>
-      <c r="D7" s="10" t="str">
-        <f>TEXT(C7,"dddd")</f>
+      <c r="D8" s="10" t="str">
+        <f>TEXT(C8,"dddd")</f>
         <v>mandag</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="19">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="19">
         <v>45020</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f t="shared" ref="D8:D9" si="0">TEXT(C8,"dddd")</f>
+      <c r="D9" s="11" t="str">
+        <f t="shared" ref="D9:D10" si="0">TEXT(C9,"dddd")</f>
         <v>tirsdag</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="20">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="20">
         <v>45021</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>onsdag</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="19">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="19">
         <v>45022</v>
       </c>
-      <c r="D10" s="11" t="str">
-        <f>TEXT(C10,"dddd")</f>
+      <c r="D11" s="11" t="str">
+        <f>TEXT(C11,"dddd")</f>
         <v>torsdag</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="20">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="20">
         <v>45023</v>
       </c>
-      <c r="D11" s="12" t="str">
-        <f t="shared" ref="D11:D12" si="1">TEXT(C11,"dddd")</f>
+      <c r="D12" s="12" t="str">
+        <f t="shared" ref="D12:D13" si="1">TEXT(C12,"dddd")</f>
         <v>fredag</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="23">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="23">
         <v>45026</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>mandag</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="13" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F15" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="20">
-        <f>WORKDAY(C3,C4,C7:C12)</f>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="20">
+        <f>WORKDAY(C4,C5,C8:C13)</f>
         <v>45033</v>
       </c>
-      <c r="D15" s="12" t="str">
-        <f>IF(C15="","",TEXT(C15,"dddd"))</f>
+      <c r="D16" s="12" t="str">
+        <f>IF(C16="","",TEXT(C16,"dddd"))</f>
         <v>mandag</v>
       </c>
-      <c r="F15" s="15" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C15),"")</f>
-        <v>=ARBEJDSDAG(C3;C4;C7:C12)</v>
+      <c r="F16" s="15" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C16),"")</f>
+        <v>=ARBEJDSDAG(C4;C5;C8:C13)</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -807,20 +836,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC19D6BD-BE14-4C64-A516-6F2D71B8C6B7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D480E279-C99B-4A53-A6D8-F698635C9051}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -835,124 +852,134 @@
     <col min="7" max="16384" width="11.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C4" s="16">
         <v>44986</v>
       </c>
-      <c r="D3" s="7" t="str">
-        <f>TEXT(C3,"dddd")</f>
+      <c r="D4" s="7" t="str">
+        <f>TEXT(C4,"dddd")</f>
         <v>onsdag</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C5" s="21">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="13" t="s">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="18">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="18">
         <v>44993</v>
       </c>
-      <c r="D7" s="10" t="str">
-        <f>TEXT(C7,"dddd")</f>
+      <c r="D8" s="10" t="str">
+        <f>TEXT(C8,"dddd")</f>
         <v>onsdag</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="20">
-        <f>WORKDAY.INTL(C3,C4,7,C7)</f>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="20">
+        <f>WORKDAY.INTL(C4,C5,7,C8)</f>
         <v>45001</v>
       </c>
-      <c r="D10" s="10" t="str">
-        <f>IF(C10="","",TEXT(C10,"dddd"))</f>
+      <c r="D11" s="10" t="str">
+        <f>IF(C11="","",TEXT(C11,"dddd"))</f>
         <v>torsdag</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F11" s="15" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C10),"")</f>
-        <v>=ARBEJDSDAG.INTL(C3;C4;7;C7)</v>
-      </c>
-    </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="15" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C11),"")</f>
+        <v>=ARBEJDSDAG.INTL(C4;C5;7;C8)</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="20">
-        <f>WORKDAY.INTL(C3,C4,"0000110",C7)</f>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="20">
+        <f>WORKDAY.INTL(C4,C5,"0000110",C8)</f>
         <v>45001</v>
       </c>
-      <c r="D14" s="10" t="str">
-        <f>IF(C14="","",TEXT(C14,"dddd"))</f>
+      <c r="D15" s="10" t="str">
+        <f>IF(C15="","",TEXT(C15,"dddd"))</f>
         <v>torsdag</v>
       </c>
-      <c r="F14" s="15" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C14),"")</f>
-        <v>=ARBEJDSDAG.INTL(C3;C4;"0000110";C7)</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="25" t="s">
+      <c r="F15" s="15" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C15),"")</f>
+        <v>=ARBEJDSDAG.INTL(C4;C5;"0000110";C8)</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D16" numberStoredAsText="1"/>
+    <ignoredError sqref="D17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047D835F-0A72-4FB6-B695-18532B97D8FD}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -967,121 +994,125 @@
     <col min="7" max="16384" width="11.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C4" s="16">
         <v>45012</v>
       </c>
-      <c r="D3" s="7" t="str">
-        <f>TEXT(C3,"dddd")</f>
+      <c r="D4" s="7" t="str">
+        <f>TEXT(C4,"dddd")</f>
         <v>mandag</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C5" s="17">
         <v>45030</v>
       </c>
-      <c r="D4" s="9" t="str">
-        <f>TEXT(C4,"dddd")</f>
+      <c r="D5" s="9" t="str">
+        <f>TEXT(C5,"dddd")</f>
         <v>fredag</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="13" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="18">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="18">
         <v>45019</v>
       </c>
-      <c r="D7" s="10" t="str">
-        <f>TEXT(C7,"dddd")</f>
+      <c r="D8" s="10" t="str">
+        <f>TEXT(C8,"dddd")</f>
         <v>mandag</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="19">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="19">
         <v>45020</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f t="shared" ref="D8:D9" si="0">TEXT(C8,"dddd")</f>
+      <c r="D9" s="11" t="str">
+        <f t="shared" ref="D9:D10" si="0">TEXT(C9,"dddd")</f>
         <v>tirsdag</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="20">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="20">
         <v>45021</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>onsdag</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="19">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="19">
         <v>45022</v>
       </c>
-      <c r="D10" s="11" t="str">
-        <f>TEXT(C10,"dddd")</f>
+      <c r="D11" s="11" t="str">
+        <f>TEXT(C11,"dddd")</f>
         <v>torsdag</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="20">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="20">
         <v>45023</v>
       </c>
-      <c r="D11" s="12" t="str">
-        <f t="shared" ref="D11:D12" si="1">TEXT(C11,"dddd")</f>
+      <c r="D12" s="12" t="str">
+        <f t="shared" ref="D12:D13" si="1">TEXT(C12,"dddd")</f>
         <v>fredag</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="23">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="23">
         <v>45026</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>mandag</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="13" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="14">
-        <f>NETWORKDAYS(C3,C4,C7:C12)</f>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="14">
+        <f>NETWORKDAYS(C4,C5,C8:C13)</f>
         <v>9</v>
       </c>
-      <c r="F15" s="15" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D15)</f>
-        <v>=ANTAL.ARBEJDSDAGE(C3;C4;C7:C12)</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="1"/>
+      <c r="F16" s="15" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D16)</f>
+        <v>=ANTAL.ARBEJDSDAGE(C4;C5;C8:C13)</v>
+      </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="1"/>
@@ -1089,17 +1120,23 @@
     <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="1"/>
     </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7556E643-A89E-4B58-B040-CF11E140FEFE}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3046875" defaultRowHeight="20.6" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1112,123 +1149,121 @@
     <col min="7" max="16384" width="11.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C4" s="16">
         <v>44986</v>
       </c>
-      <c r="D3" s="7" t="str">
-        <f>TEXT(C3,"dddd")</f>
-        <v>onsdag</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="17">
-        <v>45000</v>
-      </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="7" t="str">
         <f>TEXT(C4,"dddd")</f>
         <v>onsdag</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="13" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17">
+        <v>45000</v>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f>TEXT(C5,"dddd")</f>
+        <v>onsdag</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="18">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="18">
         <v>44993</v>
       </c>
-      <c r="D7" s="10" t="str">
-        <f>TEXT(C7,"dddd")</f>
+      <c r="D8" s="10" t="str">
+        <f>TEXT(C8,"dddd")</f>
         <v>onsdag</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="13" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="24">
-        <f>NETWORKDAYS.INTL(C3,C4,7,C7)</f>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="24">
+        <f>NETWORKDAYS.INTL(C4,C5,7,C8)</f>
         <v>10</v>
       </c>
-      <c r="D10" s="15" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C10),"")</f>
-        <v>=ANTAL.ARBEJDSDAGE.INTL(C3;C4;7;C7)</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="2" t="s">
+      <c r="D11" s="15" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C11),"")</f>
+        <v>=ANTAL.ARBEJDSDAGE.INTL(C4;C5;7;C8)</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="24">
-        <f>NETWORKDAYS.INTL(C3,C4,"0000110",C7)</f>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="24">
+        <f>NETWORKDAYS.INTL(C4,C5,"0000110",C8)</f>
         <v>10</v>
       </c>
-      <c r="D14" s="15" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C14),"")</f>
-        <v>=ANTAL.ARBEJDSDAGE.INTL(C3;C4;"0000110";C7)</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="25" t="s">
+      <c r="D15" s="15" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C15),"")</f>
+        <v>=ANTAL.ARBEJDSDAGE.INTL(C4;C5;"0000110";C8)</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C16" numberStoredAsText="1"/>
+    <ignoredError sqref="C17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1045B9CD-EA5C-41F8-8B82-C50C8ACE4C68}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>